--- a/assets/Database/PovrsineZaNepokretnosti.xlsx
+++ b/assets/Database/PovrsineZaNepokretnosti.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BackUp" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$1:$J$91</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Ref</t>
   </si>
@@ -29,12 +33,36 @@
   <si>
     <t>Povrsina placa (ar)</t>
   </si>
+  <si>
+    <t>ProdukcijaId</t>
+  </si>
+  <si>
+    <t>provera</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Kvadratura</t>
+  </si>
+  <si>
+    <t>Plac</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>Produkcija</t>
+  </si>
+  <si>
+    <t>Parcela</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +70,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,19 +403,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -384,8 +428,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>117</v>
       </c>
@@ -402,8 +452,15 @@
         <f>CONCATENATE("UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =",C2,", land_area=",D2," WHERE id =",A2,";")</f>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=4 WHERE id =117;</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2">
+        <v>27</v>
+      </c>
+      <c r="J2" t="e">
+        <f>VLOOKUP(H2,$A$2:$A$89,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>133</v>
       </c>
@@ -420,8 +477,15 @@
         <f t="shared" ref="F3:F66" si="0">CONCATENATE("UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =",C3,", land_area=",D3," WHERE id =",A3,";")</f>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =133;</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">VLOOKUP(H3,$A$2:$A$89,1,0)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>134</v>
       </c>
@@ -438,8 +502,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =29.68, land_area=1.5 WHERE id =134;</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4">
+        <v>102</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>135</v>
       </c>
@@ -456,8 +527,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =29.68, land_area=1.5 WHERE id =135;</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5">
+        <v>117</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>137</v>
       </c>
@@ -474,8 +552,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =180, land_area=11 WHERE id =137;</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6">
+        <v>133</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>140</v>
       </c>
@@ -492,8 +577,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =140;</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7">
+        <v>134</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>143</v>
       </c>
@@ -510,8 +602,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=26.4 WHERE id =143;</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8">
+        <v>135</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>148</v>
       </c>
@@ -528,8 +627,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =60, land_area=0 WHERE id =148;</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9">
+        <v>137</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>157</v>
       </c>
@@ -546,8 +652,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =157;</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10">
+        <v>140</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>195</v>
       </c>
@@ -564,8 +677,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =195;</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11">
+        <v>143</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>196</v>
       </c>
@@ -582,8 +702,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =73, land_area=0 WHERE id =196;</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12">
+        <v>148</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>215</v>
       </c>
@@ -600,8 +727,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =48, land_area=0 WHERE id =215;</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13">
+        <v>157</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>216</v>
       </c>
@@ -618,8 +752,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =40, land_area=0 WHERE id =216;</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14">
+        <v>195</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>230</v>
       </c>
@@ -636,8 +777,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =42, land_area=0 WHERE id =230;</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15">
+        <v>196</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>29</v>
       </c>
@@ -654,8 +802,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=3.68 WHERE id =29;</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16">
+        <v>215</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>300</v>
       </c>
@@ -672,8 +827,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =250, land_area=34 WHERE id =300;</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17">
+        <v>216</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>362</v>
       </c>
@@ -690,8 +852,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =400, land_area=6 WHERE id =362;</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18">
+        <v>230</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>398</v>
       </c>
@@ -708,8 +877,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=246 WHERE id =398;</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19">
+        <v>373</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>413</v>
       </c>
@@ -726,8 +902,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =45, land_area=0 WHERE id =413;</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20">
+        <v>398</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>414</v>
       </c>
@@ -744,8 +927,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =30, land_area=0 WHERE id =414;</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21">
+        <v>413</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>425</v>
       </c>
@@ -762,8 +952,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =158, land_area=10 WHERE id =425;</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22">
+        <v>414</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>426</v>
       </c>
@@ -780,8 +977,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =120, land_area=70 WHERE id =426;</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23">
+        <v>425</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>439</v>
       </c>
@@ -798,8 +1002,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =400, land_area=5 WHERE id =439;</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24">
+        <v>426</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>451</v>
       </c>
@@ -816,8 +1027,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =451;</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25">
+        <v>439</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>452</v>
       </c>
@@ -834,8 +1052,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =452;</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26">
+        <v>451</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>453</v>
       </c>
@@ -852,8 +1077,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =453;</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27">
+        <v>452</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>454</v>
       </c>
@@ -870,8 +1102,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =454;</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28">
+        <v>453</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>455</v>
       </c>
@@ -888,8 +1127,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =130, land_area=0 WHERE id =455;</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29">
+        <v>454</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>456</v>
       </c>
@@ -906,8 +1152,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =25, land_area=0 WHERE id =456;</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30">
+        <v>455</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>460</v>
       </c>
@@ -924,8 +1177,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =460;</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31">
+        <v>456</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>471</v>
       </c>
@@ -942,8 +1202,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =55, land_area=0 WHERE id =471;</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32">
+        <v>460</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>472</v>
       </c>
@@ -960,8 +1227,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =71, land_area=0 WHERE id =472;</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33">
+        <v>471</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>474</v>
       </c>
@@ -978,8 +1252,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =240, land_area=300 WHERE id =474;</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34">
+        <v>472</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>476</v>
       </c>
@@ -996,8 +1277,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =300, land_area=420 WHERE id =476;</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35">
+        <v>474</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>483</v>
       </c>
@@ -1014,8 +1302,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =98, land_area=8 WHERE id =483;</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36">
+        <v>476</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>484</v>
       </c>
@@ -1032,8 +1327,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =124, land_area=15 WHERE id =484;</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37">
+        <v>483</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>489</v>
       </c>
@@ -1050,8 +1352,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =450, land_area=27 WHERE id =489;</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38">
+        <v>489</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>497</v>
       </c>
@@ -1068,8 +1377,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =440, land_area=7 WHERE id =497;</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="H39">
+        <v>497</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>500</v>
       </c>
@@ -1086,8 +1402,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =44, land_area=0 WHERE id =500;</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40">
+        <v>507</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>507</v>
       </c>
@@ -1104,8 +1427,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =45, land_area=0 WHERE id =507;</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41">
+        <v>509</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>509</v>
       </c>
@@ -1122,8 +1452,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=6 WHERE id =509;</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42">
+        <v>510</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>510</v>
       </c>
@@ -1140,8 +1477,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =120, land_area=30 WHERE id =510;</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43">
+        <v>519</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>516</v>
       </c>
@@ -1158,8 +1502,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =59, land_area=0 WHERE id =516;</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44">
+        <v>520</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>519</v>
       </c>
@@ -1176,8 +1527,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=30 WHERE id =519;</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45">
+        <v>526</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>520</v>
       </c>
@@ -1194,8 +1552,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =200, land_area=8 WHERE id =520;</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46">
+        <v>527</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>526</v>
       </c>
@@ -1212,8 +1577,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=2 WHERE id =526;</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47">
+        <v>530</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>527</v>
       </c>
@@ -1230,8 +1602,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =628, land_area=0 WHERE id =527;</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48">
+        <v>541</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>530</v>
       </c>
@@ -1248,8 +1627,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=0 WHERE id =530;</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49">
+        <v>542</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>536</v>
       </c>
@@ -1266,8 +1652,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15.4 WHERE id =536;</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50">
+        <v>545</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>541</v>
       </c>
@@ -1284,8 +1677,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15.8 WHERE id =541;</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51">
+        <v>546</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>542</v>
       </c>
@@ -1302,8 +1702,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=25 WHERE id =542;</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52">
+        <v>547</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>544</v>
       </c>
@@ -1320,8 +1727,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =57, land_area=0 WHERE id =544;</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53">
+        <v>548</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>545</v>
       </c>
@@ -1338,8 +1752,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =46, land_area=0 WHERE id =545;</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54">
+        <v>551</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>546</v>
       </c>
@@ -1356,8 +1777,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=86 WHERE id =546;</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55">
+        <v>554</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>547</v>
       </c>
@@ -1374,8 +1802,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =110, land_area=6 WHERE id =547;</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56">
+        <v>555</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>548</v>
       </c>
@@ -1392,8 +1827,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=20 WHERE id =548;</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57">
+        <v>557</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>50</v>
       </c>
@@ -1410,8 +1852,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =60, land_area=0 WHERE id =50;</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58">
+        <v>560</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>551</v>
       </c>
@@ -1428,8 +1877,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=20 WHERE id =551;</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59">
+        <v>561</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>552</v>
       </c>
@@ -1446,8 +1902,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =156, land_area=2.5 WHERE id =552;</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60">
+        <v>562</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>553</v>
       </c>
@@ -1464,8 +1927,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =33, land_area=0 WHERE id =553;</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61">
+        <v>564</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>554</v>
       </c>
@@ -1482,8 +1952,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=8 WHERE id =554;</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62">
+        <v>565</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>555</v>
       </c>
@@ -1500,8 +1977,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15 WHERE id =555;</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63">
+        <v>568</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>556</v>
       </c>
@@ -1518,8 +2002,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=83 WHERE id =556;</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64">
+        <v>569</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>557</v>
       </c>
@@ -1536,8 +2027,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=26 WHERE id =557;</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65">
+        <v>571</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>558</v>
       </c>
@@ -1554,8 +2052,15 @@
         <f t="shared" si="0"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =150, land_area=0 WHERE id =558;</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66">
+        <v>572</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>560</v>
       </c>
@@ -1569,11 +2074,18 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F89" si="1">CONCATENATE("UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =",C67,", land_area=",D67," WHERE id =",A67,";")</f>
+        <f t="shared" ref="F67:F89" si="2">CONCATENATE("UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =",C67,", land_area=",D67," WHERE id =",A67,";")</f>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =90, land_area=4.9 WHERE id =560;</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67">
+        <v>573</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J91" si="3">VLOOKUP(H67,$A$2:$A$89,1,0)</f>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>561</v>
       </c>
@@ -1587,11 +2099,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =75, land_area=0 WHERE id =561;</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68">
+        <v>574</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>562</v>
       </c>
@@ -1605,11 +2124,18 @@
         <v>60</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=60 WHERE id =562;</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69">
+        <v>578</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>564</v>
       </c>
@@ -1623,11 +2149,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =564;</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70">
+        <v>579</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>565</v>
       </c>
@@ -1641,11 +2174,18 @@
         <v>15</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15 WHERE id =565;</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71">
+        <v>580</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>566</v>
       </c>
@@ -1659,11 +2199,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =40, land_area=0 WHERE id =566;</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72">
+        <v>581</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>567</v>
       </c>
@@ -1677,11 +2224,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =40, land_area=0 WHERE id =567;</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73">
+        <v>583</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>568</v>
       </c>
@@ -1695,11 +2249,18 @@
         <v>5</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =530, land_area=5 WHERE id =568;</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74">
+        <v>584</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>569</v>
       </c>
@@ -1713,11 +2274,18 @@
         <v>3.6</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =400, land_area=3.6 WHERE id =569;</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75">
+        <v>586</v>
+      </c>
+      <c r="J75" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>570</v>
       </c>
@@ -1731,11 +2299,18 @@
         <v>16</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =479, land_area=16 WHERE id =570;</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76">
+        <v>587</v>
+      </c>
+      <c r="J76" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>571</v>
       </c>
@@ -1749,11 +2324,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =36, land_area=0 WHERE id =571;</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77">
+        <v>589</v>
+      </c>
+      <c r="J77" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>572</v>
       </c>
@@ -1767,11 +2349,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =50, land_area=0 WHERE id =572;</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78">
+        <v>591</v>
+      </c>
+      <c r="J78" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>573</v>
       </c>
@@ -1785,11 +2374,18 @@
         <v>6</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=6 WHERE id =573;</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79">
+        <v>592</v>
+      </c>
+      <c r="J79" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>574</v>
       </c>
@@ -1803,11 +2399,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =200, land_area=0 WHERE id =574;</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80">
+        <v>593</v>
+      </c>
+      <c r="J80" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>575</v>
       </c>
@@ -1821,11 +2424,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =38, land_area=0 WHERE id =575;</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81">
+        <v>594</v>
+      </c>
+      <c r="J81" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>577</v>
       </c>
@@ -1839,11 +2449,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =36, land_area=0 WHERE id =577;</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82">
+        <v>595</v>
+      </c>
+      <c r="J82" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>578</v>
       </c>
@@ -1857,11 +2474,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =71, land_area=0 WHERE id =578;</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="H83">
+        <v>597</v>
+      </c>
+      <c r="J83" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>579</v>
       </c>
@@ -1875,11 +2499,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =36, land_area=0 WHERE id =579;</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84">
+        <v>598</v>
+      </c>
+      <c r="J84" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>580</v>
       </c>
@@ -1893,11 +2524,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =54, land_area=0 WHERE id =580;</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85">
+        <v>599</v>
+      </c>
+      <c r="J85" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>581</v>
       </c>
@@ -1911,11 +2549,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =54, land_area=0 WHERE id =581;</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86">
+        <v>600</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>583</v>
       </c>
@@ -1929,11 +2574,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =48, land_area=0 WHERE id =583;</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87">
+        <v>601</v>
+      </c>
+      <c r="J87" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>584</v>
       </c>
@@ -1947,11 +2599,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =49, land_area=0 WHERE id =584;</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88">
+        <v>602</v>
+      </c>
+      <c r="J88" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>585</v>
       </c>
@@ -1965,35 +2624,3727 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>UPDATE gisitrs_marinkom_jos1.jos_osrs_properties SET square_feet =84, land_area=0 WHERE id =585;</v>
       </c>
+      <c r="H89">
+        <v>603</v>
+      </c>
+      <c r="J89" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="H90">
+        <v>604</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="H91">
+        <v>605</v>
+      </c>
+      <c r="J91" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>160</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE("UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =",C2,", land_area=",D2," WHERE id =",A2,";")</f>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =160, land_area=63 WHERE id =27;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="0">CONCATENATE("UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =",C3,", land_area=",D3," WHERE id =",A3,";")</f>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =120, land_area=4.5 WHERE id =102;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>373</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =373;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>586</v>
+      </c>
+      <c r="C5">
+        <v>361</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =361, land_area=0 WHERE id =586;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>587</v>
+      </c>
+      <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =69, land_area=17 WHERE id =587;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>589</v>
+      </c>
+      <c r="C7">
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =161, land_area=0 WHERE id =589;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>591</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=30 WHERE id =591;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>592</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =23, land_area=0 WHERE id =592;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>593</v>
+      </c>
+      <c r="C10">
+        <v>307</v>
+      </c>
+      <c r="D10">
+        <v>6.5</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =307, land_area=6.5 WHERE id =593;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>594</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =53, land_area=0 WHERE id =594;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>595</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=17 WHERE id =595;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>597</v>
+      </c>
+      <c r="C13">
+        <v>225</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =225, land_area=8 WHERE id =597;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>598</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =47, land_area=8 WHERE id =598;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>599</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =60, land_area=23 WHERE id =599;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>600</v>
+      </c>
+      <c r="C16">
+        <v>280</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =280, land_area=6 WHERE id =600;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>601</v>
+      </c>
+      <c r="C17">
+        <v>47</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =47, land_area=0 WHERE id =601;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>602</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =38, land_area=0 WHERE id =602;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>603</v>
+      </c>
+      <c r="C19">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =41, land_area=0 WHERE id =603;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>604</v>
+      </c>
+      <c r="C20">
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =65, land_area=0 WHERE id =604;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>605</v>
+      </c>
+      <c r="C21">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =37, land_area=0 WHERE id =605;</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="86.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(H2,$A$1:$C$89,3,0)</f>
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP(H2,$A$1:$D$89,4,0)</f>
+        <v>3.68</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE("UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =",I2,", land_area=",J2," WHERE id =",H2,";")</f>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =63, land_area=3.68 WHERE id =29;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>117</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">VLOOKUP(H3,$A$1:$C$89,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">VLOOKUP(H3,$A$1:$D$89,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="2">CONCATENATE("UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =",I3,", land_area=",J3," WHERE id =",H3,";")</f>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=4 WHERE id =117;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>134</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>29.68</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="H4">
+        <v>133</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =55, land_area=0 WHERE id =133;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>135</v>
+      </c>
+      <c r="B5">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>29.68</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="H5">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>29.68</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =29.68, land_area=1.5 WHERE id =134;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>135</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>29.68</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =29.68, land_area=1.5 WHERE id =135;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>140</v>
+      </c>
+      <c r="B7">
+        <v>137</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>137</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =180, land_area=11 WHERE id =137;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>140</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>26.4</v>
+      </c>
+      <c r="H8">
+        <v>140</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =95, land_area=0 WHERE id =140;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>148</v>
+      </c>
+      <c r="B9">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>143</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=26.4 WHERE id =143;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>157</v>
+      </c>
+      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>148</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =90, land_area=0 WHERE id =148;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>195</v>
+      </c>
+      <c r="B11">
+        <v>189</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>157</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =157;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>196</v>
+      </c>
+      <c r="B12">
+        <v>190</v>
+      </c>
+      <c r="C12">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>195</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =195;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>215</v>
+      </c>
+      <c r="B13">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>196</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =73, land_area=0 WHERE id =196;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>216</v>
+      </c>
+      <c r="B14">
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>215</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =48, land_area=0 WHERE id =215;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>230</v>
+      </c>
+      <c r="B15">
+        <v>229</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>216</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =40, land_area=0 WHERE id =216;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>3.68</v>
+      </c>
+      <c r="H16">
+        <v>230</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =42, land_area=0 WHERE id =230;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17">
+        <v>287</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>398</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=246 WHERE id =398;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>362</v>
+      </c>
+      <c r="B18">
+        <v>328</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>413</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =45, land_area=0 WHERE id =413;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>398</v>
+      </c>
+      <c r="B19">
+        <v>357</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>246</v>
+      </c>
+      <c r="H19">
+        <v>414</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =30, land_area=0 WHERE id =414;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>413</v>
+      </c>
+      <c r="B20">
+        <v>372</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>425</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =158, land_area=10 WHERE id =425;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>414</v>
+      </c>
+      <c r="B21">
+        <v>373</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>426</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =120, land_area=70 WHERE id =426;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>425</v>
+      </c>
+      <c r="B22">
+        <v>382</v>
+      </c>
+      <c r="C22">
+        <v>158</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>439</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =400, land_area=5 WHERE id =439;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>426</v>
+      </c>
+      <c r="B23">
+        <v>383</v>
+      </c>
+      <c r="C23">
+        <v>120</v>
+      </c>
+      <c r="D23">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <v>451</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =451;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>439</v>
+      </c>
+      <c r="B24">
+        <v>392</v>
+      </c>
+      <c r="C24">
+        <v>400</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>452</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =452;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>451</v>
+      </c>
+      <c r="B25">
+        <v>403</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>453</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =453;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>452</v>
+      </c>
+      <c r="B26">
+        <v>404</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>454</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =454;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>453</v>
+      </c>
+      <c r="B27">
+        <v>405</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>455</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =130, land_area=0 WHERE id =455;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>454</v>
+      </c>
+      <c r="B28">
+        <v>406</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>456</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =25, land_area=0 WHERE id =456;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>455</v>
+      </c>
+      <c r="B29">
+        <v>407</v>
+      </c>
+      <c r="C29">
+        <v>130</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>460</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =460;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>456</v>
+      </c>
+      <c r="B30">
+        <v>408</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>471</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =55, land_area=0 WHERE id =471;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>460</v>
+      </c>
+      <c r="B31">
+        <v>412</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>472</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =71, land_area=0 WHERE id =472;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>471</v>
+      </c>
+      <c r="B32">
+        <v>423</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>474</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =240, land_area=300 WHERE id =474;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>472</v>
+      </c>
+      <c r="B33">
+        <v>424</v>
+      </c>
+      <c r="C33">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>476</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =300, land_area=420 WHERE id =476;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>474</v>
+      </c>
+      <c r="B34">
+        <v>426</v>
+      </c>
+      <c r="C34">
+        <v>240</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="H34">
+        <v>483</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =98, land_area=8 WHERE id =483;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>476</v>
+      </c>
+      <c r="B35">
+        <v>428</v>
+      </c>
+      <c r="C35">
+        <v>300</v>
+      </c>
+      <c r="D35">
+        <v>420</v>
+      </c>
+      <c r="H35">
+        <v>489</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =450, land_area=27 WHERE id =489;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>483</v>
+      </c>
+      <c r="B36">
+        <v>435</v>
+      </c>
+      <c r="C36">
+        <v>98</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>497</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =440, land_area=7 WHERE id =497;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>484</v>
+      </c>
+      <c r="B37">
+        <v>436</v>
+      </c>
+      <c r="C37">
+        <v>124</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>507</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =45, land_area=0 WHERE id =507;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>489</v>
+      </c>
+      <c r="B38">
+        <v>441</v>
+      </c>
+      <c r="C38">
+        <v>450</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="H38">
+        <v>509</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=6 WHERE id =509;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>497</v>
+      </c>
+      <c r="B39">
+        <v>449</v>
+      </c>
+      <c r="C39">
+        <v>440</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>510</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =120, land_area=30 WHERE id =510;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>500</v>
+      </c>
+      <c r="B40">
+        <v>451</v>
+      </c>
+      <c r="C40">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>519</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=30 WHERE id =519;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>507</v>
+      </c>
+      <c r="B41">
+        <v>458</v>
+      </c>
+      <c r="C41">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>520</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =200, land_area=8 WHERE id =520;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>509</v>
+      </c>
+      <c r="B42">
+        <v>460</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>526</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=2 WHERE id =526;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>510</v>
+      </c>
+      <c r="B43">
+        <v>461</v>
+      </c>
+      <c r="C43">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>527</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>628</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =628, land_area=0 WHERE id =527;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>516</v>
+      </c>
+      <c r="B44">
+        <v>467</v>
+      </c>
+      <c r="C44">
+        <v>59</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>530</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=0 WHERE id =530;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>519</v>
+      </c>
+      <c r="B45">
+        <v>470</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="H45">
+        <v>541</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>15.8</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15.8 WHERE id =541;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>520</v>
+      </c>
+      <c r="B46">
+        <v>471</v>
+      </c>
+      <c r="C46">
+        <v>200</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>542</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=25 WHERE id =542;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>526</v>
+      </c>
+      <c r="B47">
+        <v>477</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>545</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =46, land_area=0 WHERE id =545;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>527</v>
+      </c>
+      <c r="B48">
+        <v>478</v>
+      </c>
+      <c r="C48">
+        <v>628</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>546</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=86 WHERE id =546;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>530</v>
+      </c>
+      <c r="B49">
+        <v>481</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>547</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =110, land_area=6 WHERE id =547;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>536</v>
+      </c>
+      <c r="B50">
+        <v>483</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>15.4</v>
+      </c>
+      <c r="H50">
+        <v>548</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=20 WHERE id =548;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>541</v>
+      </c>
+      <c r="B51">
+        <v>487</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>15.8</v>
+      </c>
+      <c r="H51">
+        <v>551</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =100, land_area=20 WHERE id =551;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>542</v>
+      </c>
+      <c r="B52">
+        <v>488</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <v>554</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=8 WHERE id =554;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>544</v>
+      </c>
+      <c r="B53">
+        <v>490</v>
+      </c>
+      <c r="C53">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>555</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15 WHERE id =555;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>545</v>
+      </c>
+      <c r="B54">
+        <v>491</v>
+      </c>
+      <c r="C54">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>557</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=26 WHERE id =557;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>546</v>
+      </c>
+      <c r="B55">
+        <v>492</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>86</v>
+      </c>
+      <c r="H55">
+        <v>560</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =90, land_area=4.9 WHERE id =560;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>547</v>
+      </c>
+      <c r="B56">
+        <v>493</v>
+      </c>
+      <c r="C56">
+        <v>110</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>561</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =75, land_area=0 WHERE id =561;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>548</v>
+      </c>
+      <c r="B57">
+        <v>494</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>562</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=60 WHERE id =562;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58">
+        <v>496</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>564</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=0 WHERE id =564;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>551</v>
+      </c>
+      <c r="B59">
+        <v>497</v>
+      </c>
+      <c r="C59">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>565</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=15 WHERE id =565;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>552</v>
+      </c>
+      <c r="B60">
+        <v>498</v>
+      </c>
+      <c r="C60">
+        <v>156</v>
+      </c>
+      <c r="D60">
+        <v>2.5</v>
+      </c>
+      <c r="H60">
+        <v>568</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =530, land_area=5 WHERE id =568;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>553</v>
+      </c>
+      <c r="B61">
+        <v>499</v>
+      </c>
+      <c r="C61">
+        <v>33</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>569</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =400, land_area=3.6 WHERE id =569;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>554</v>
+      </c>
+      <c r="B62">
+        <v>500</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="H62">
+        <v>571</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =36, land_area=0 WHERE id =571;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>555</v>
+      </c>
+      <c r="B63">
+        <v>501</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>572</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =50, land_area=0 WHERE id =572;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>556</v>
+      </c>
+      <c r="B64">
+        <v>502</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>83</v>
+      </c>
+      <c r="H64">
+        <v>573</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =0, land_area=6 WHERE id =573;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>557</v>
+      </c>
+      <c r="B65">
+        <v>503</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="H65">
+        <v>574</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =200, land_area=0 WHERE id =574;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>558</v>
+      </c>
+      <c r="B66">
+        <v>504</v>
+      </c>
+      <c r="C66">
+        <v>150</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>578</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="2"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =71, land_area=0 WHERE id =578;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>560</v>
+      </c>
+      <c r="B67">
+        <v>506</v>
+      </c>
+      <c r="C67">
+        <v>90</v>
+      </c>
+      <c r="D67">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H67">
+        <v>579</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I71" si="3">VLOOKUP(H67,$A$1:$C$89,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J71" si="4">VLOOKUP(H67,$A$1:$D$89,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L71" si="5">CONCATENATE("UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =",I67,", land_area=",J67," WHERE id =",H67,";")</f>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =36, land_area=0 WHERE id =579;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>561</v>
+      </c>
+      <c r="B68">
+        <v>507</v>
+      </c>
+      <c r="C68">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>580</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="5"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =54, land_area=0 WHERE id =580;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>562</v>
+      </c>
+      <c r="B69">
+        <v>508</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>60</v>
+      </c>
+      <c r="H69">
+        <v>581</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="5"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =54, land_area=0 WHERE id =581;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>564</v>
+      </c>
+      <c r="B70">
+        <v>510</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>583</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="5"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =48, land_area=0 WHERE id =583;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>565</v>
+      </c>
+      <c r="B71">
+        <v>511</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>584</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="5"/>
+        <v>UPDATE marinkom_jos1.jos_osrs_properties SET square_feet =49, land_area=0 WHERE id =584;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>566</v>
+      </c>
+      <c r="B72">
+        <v>512</v>
+      </c>
+      <c r="C72">
+        <v>40</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>567</v>
+      </c>
+      <c r="B73">
+        <v>513</v>
+      </c>
+      <c r="C73">
+        <v>40</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>568</v>
+      </c>
+      <c r="B74">
+        <v>514</v>
+      </c>
+      <c r="C74">
+        <v>530</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>569</v>
+      </c>
+      <c r="B75">
+        <v>515</v>
+      </c>
+      <c r="C75">
+        <v>400</v>
+      </c>
+      <c r="D75">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>570</v>
+      </c>
+      <c r="B76">
+        <v>516</v>
+      </c>
+      <c r="C76">
+        <v>479</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>571</v>
+      </c>
+      <c r="B77">
+        <v>517</v>
+      </c>
+      <c r="C77">
+        <v>36</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>572</v>
+      </c>
+      <c r="B78">
+        <v>518</v>
+      </c>
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>573</v>
+      </c>
+      <c r="B79">
+        <v>519</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>574</v>
+      </c>
+      <c r="B80">
+        <v>520</v>
+      </c>
+      <c r="C80">
+        <v>200</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>575</v>
+      </c>
+      <c r="B81">
+        <v>521</v>
+      </c>
+      <c r="C81">
+        <v>38</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>577</v>
+      </c>
+      <c r="B82">
+        <v>523</v>
+      </c>
+      <c r="C82">
+        <v>36</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>578</v>
+      </c>
+      <c r="B83">
+        <v>524</v>
+      </c>
+      <c r="C83">
+        <v>71</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>579</v>
+      </c>
+      <c r="B84">
+        <v>525</v>
+      </c>
+      <c r="C84">
+        <v>36</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>580</v>
+      </c>
+      <c r="B85">
+        <v>526</v>
+      </c>
+      <c r="C85">
+        <v>54</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>581</v>
+      </c>
+      <c r="B86">
+        <v>527</v>
+      </c>
+      <c r="C86">
+        <v>54</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>583</v>
+      </c>
+      <c r="B87">
+        <v>529</v>
+      </c>
+      <c r="C87">
+        <v>48</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>584</v>
+      </c>
+      <c r="B88">
+        <v>530</v>
+      </c>
+      <c r="C88">
+        <v>49</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>585</v>
+      </c>
+      <c r="B89">
+        <v>531</v>
+      </c>
+      <c r="C89">
+        <v>84</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C92"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>133</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>134</v>
+      </c>
+      <c r="B7">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>135</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>137</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>140</v>
+      </c>
+      <c r="B10">
+        <v>95</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>2640</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>148</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>157</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>195</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>196</v>
+      </c>
+      <c r="B15">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>215</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>216</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>230</v>
+      </c>
+      <c r="B18">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>373</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>398</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>413</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>414</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>425</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>426</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>439</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>451</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>452</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>453</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>454</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>455</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>456</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>460</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>471</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>472</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>474</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>476</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>483</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>484</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>489</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>497</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>507</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>509</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>510</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>519</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>520</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>526</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>527</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>530</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>541</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>542</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>545</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>546</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>547</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>548</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>551</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>554</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>555</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>557</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>560</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>561</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>562</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>564</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>565</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>568</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>569</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>571</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>572</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>573</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>574</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>578</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>579</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>580</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>581</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>583</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>584</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>586</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>587</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>589</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>591</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>592</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>593</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>594</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>595</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>597</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>598</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>599</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>600</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>601</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>602</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>603</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>604</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>605</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>